--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>orderId</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Rana</t>
   </si>
   <si>
-    <t>OrderTo</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -105,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -133,30 +133,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -189,26 +165,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,113 +471,113 @@
     <col min="3" max="3" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100</v>
+      <c r="A4" s="1">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2">
-        <v>200</v>
+      <c r="A5" s="1">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1">
+        <v>300</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2">
-        <v>300</v>
-      </c>
-      <c r="G6" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>orderId</t>
   </si>
   <si>
-    <t>OrderName</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -46,15 +43,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Soap</t>
-  </si>
-  <si>
-    <t>Pen</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -68,6 +56,27 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>RequestType</t>
+  </si>
+  <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t>ResponseType</t>
+  </si>
+  <si>
+    <t>/order/getPrice</t>
   </si>
 </sst>
 </file>
@@ -459,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,110 +480,136 @@
     <col min="3" max="3" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>200</v>
+      </c>
+      <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <v>300</v>
+      </c>
+      <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <v>200</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="F9" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1">
-        <v>300</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
